--- a/medicine/Psychotrope/Agoston_Haraszthy/Agoston_Haraszthy.xlsx
+++ b/medicine/Psychotrope/Agoston_Haraszthy/Agoston_Haraszthy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agoston Haraszthy (Pest, 30 août 1812 - Corinto, 6 juillet 1869) est un noble hongrois américain, aventurier, voyageur, écrivain, constructeur de villes et vigneron.
 </t>
@@ -511,11 +523,48 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été le premier Hongrois à s'installer définitivement aux États-Unis et le deuxième à écrire un livre sur le pays dans sa langue maternelle. Il est le fondateur du plus ancien village incorporé de l'État. Il a également exploité le premier bateau à vapeur commercial sur le haut Mississippi. À San Diego, il est connu comme le premier maréchal de la ville et le premier shérif du comté. 
-Viticulture
-Il fut pionnier dans le Wisconsin et en Californie, et a été souvent appelé le « père de la viticulture californienne » ou le « père de la vinification moderne en Californie ». 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Agoston_Haraszthy</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Agoston_Haraszthy</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Viticulture</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il fut pionnier dans le Wisconsin et en Californie, et a été souvent appelé le « père de la viticulture californienne » ou le « père de la vinification moderne en Californie ». 
 Il est l'un des premiers hommes à planter des vignobles dans le Wisconsin, il fut le fondateur de la cave Buena Vista à Sonoma, en Californie, et un des premiers écrivains sur le vin et la viticulture en Californie.
 En Californie, il a introduit plus de trois cents variétés de raisin européen.
 </t>
